--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Gal-Galr2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Gal-Galr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,15 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,12 +95,6 @@
   </si>
   <si>
     <t>Galr2</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.8713888928568</v>
+        <v>2.889856</v>
       </c>
       <c r="H2">
-        <v>2.8713888928568</v>
+        <v>8.669568</v>
       </c>
       <c r="I2">
-        <v>0.08431285145767899</v>
+        <v>0.06333786583275691</v>
       </c>
       <c r="J2">
-        <v>0.08431285145767899</v>
+        <v>0.06333786583275691</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.24979597929536</v>
+        <v>0.2299333333333333</v>
       </c>
       <c r="N2">
-        <v>1.24979597929536</v>
+        <v>0.6898</v>
       </c>
       <c r="O2">
-        <v>0.6737663424988742</v>
+        <v>0.07986766375042013</v>
       </c>
       <c r="P2">
-        <v>0.6737663424988742</v>
+        <v>0.07986766375042015</v>
       </c>
       <c r="Q2">
-        <v>3.588650293285784</v>
+        <v>0.6644742229333332</v>
       </c>
       <c r="R2">
-        <v>3.588650293285784</v>
+        <v>5.980268006399999</v>
       </c>
       <c r="S2">
-        <v>0.05680716155229125</v>
+        <v>0.005058647370999854</v>
       </c>
       <c r="T2">
-        <v>0.05680716155229125</v>
+        <v>0.005058647370999854</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.8713888928568</v>
+        <v>2.889856</v>
       </c>
       <c r="H3">
-        <v>2.8713888928568</v>
+        <v>8.669568</v>
       </c>
       <c r="I3">
-        <v>0.08431285145767899</v>
+        <v>0.06333786583275691</v>
       </c>
       <c r="J3">
-        <v>0.08431285145767899</v>
+        <v>0.06333786583275691</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.321423735150103</v>
+        <v>1.257301333333333</v>
       </c>
       <c r="N3">
-        <v>0.321423735150103</v>
+        <v>3.771904</v>
       </c>
       <c r="O3">
-        <v>0.1732798776857257</v>
+        <v>0.4367253702100098</v>
       </c>
       <c r="P3">
-        <v>0.1732798776857257</v>
+        <v>0.4367253702100098</v>
       </c>
       <c r="Q3">
-        <v>0.9229325430105515</v>
+        <v>3.633419801941333</v>
       </c>
       <c r="R3">
-        <v>0.9229325430105515</v>
+        <v>32.700778217472</v>
       </c>
       <c r="S3">
-        <v>0.01460972058792137</v>
+        <v>0.02766125290412269</v>
       </c>
       <c r="T3">
-        <v>0.01460972058792137</v>
+        <v>0.0276612529041227</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,185 +649,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.8713888928568</v>
+        <v>2.889856</v>
       </c>
       <c r="H4">
-        <v>2.8713888928568</v>
+        <v>8.669568</v>
       </c>
       <c r="I4">
-        <v>0.08431285145767899</v>
+        <v>0.06333786583275691</v>
       </c>
       <c r="J4">
-        <v>0.08431285145767899</v>
+        <v>0.06333786583275691</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.283720047995176</v>
+        <v>0.35038</v>
       </c>
       <c r="N4">
-        <v>0.283720047995176</v>
+        <v>1.05114</v>
       </c>
       <c r="O4">
-        <v>0.1529537798154001</v>
+        <v>0.1217049812621291</v>
       </c>
       <c r="P4">
-        <v>0.1529537798154001</v>
+        <v>0.1217049812621291</v>
       </c>
       <c r="Q4">
-        <v>0.8146705944941465</v>
+        <v>1.01254774528</v>
       </c>
       <c r="R4">
-        <v>0.8146705944941465</v>
+        <v>9.112929707519999</v>
       </c>
       <c r="S4">
-        <v>0.01289596931746636</v>
+        <v>0.007708533774358924</v>
       </c>
       <c r="T4">
-        <v>0.01289596931746636</v>
+        <v>0.007708533774358925</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>31.1849719490974</v>
+        <v>2.889856</v>
       </c>
       <c r="H5">
-        <v>31.1849719490974</v>
+        <v>8.669568</v>
       </c>
       <c r="I5">
-        <v>0.9156871485423209</v>
+        <v>0.06333786583275691</v>
       </c>
       <c r="J5">
-        <v>0.9156871485423209</v>
+        <v>0.06333786583275691</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>1.24979597929536</v>
+        <v>0.7376903333333334</v>
       </c>
       <c r="N5">
-        <v>1.24979597929536</v>
+        <v>2.213071</v>
       </c>
       <c r="O5">
-        <v>0.6737663424988742</v>
+        <v>0.2562377652708119</v>
       </c>
       <c r="P5">
-        <v>0.6737663424988742</v>
+        <v>0.2562377652708119</v>
       </c>
       <c r="Q5">
-        <v>38.97485255642052</v>
+        <v>2.131818835925334</v>
       </c>
       <c r="R5">
-        <v>38.97485255642052</v>
+        <v>19.186369523328</v>
       </c>
       <c r="S5">
-        <v>0.616959180946583</v>
+        <v>0.01622955319800815</v>
       </c>
       <c r="T5">
-        <v>0.616959180946583</v>
+        <v>0.01622955319800815</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>31.1849719490974</v>
+        <v>2.889856</v>
       </c>
       <c r="H6">
-        <v>31.1849719490974</v>
+        <v>8.669568</v>
       </c>
       <c r="I6">
-        <v>0.9156871485423209</v>
+        <v>0.06333786583275691</v>
       </c>
       <c r="J6">
-        <v>0.9156871485423209</v>
+        <v>0.06333786583275691</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.321423735150103</v>
+        <v>0.303624</v>
       </c>
       <c r="N6">
-        <v>0.321423735150103</v>
+        <v>0.910872</v>
       </c>
       <c r="O6">
-        <v>0.1732798776857257</v>
+        <v>0.105464219506629</v>
       </c>
       <c r="P6">
-        <v>0.1732798776857257</v>
+        <v>0.105464219506629</v>
       </c>
       <c r="Q6">
-        <v>10.02359016443007</v>
+        <v>0.877429638144</v>
       </c>
       <c r="R6">
-        <v>10.02359016443007</v>
+        <v>7.896866743296</v>
       </c>
       <c r="S6">
-        <v>0.1586701570978043</v>
+        <v>0.006679878585267293</v>
       </c>
       <c r="T6">
-        <v>0.1586701570978043</v>
+        <v>0.006679878585267294</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,1239 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>1.417397666666667</v>
+      </c>
+      <c r="H7">
+        <v>4.252193</v>
+      </c>
+      <c r="I7">
+        <v>0.03106554210417268</v>
+      </c>
+      <c r="J7">
+        <v>0.03106554210417268</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.2299333333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.6898</v>
+      </c>
+      <c r="O7">
+        <v>0.07986766375042013</v>
+      </c>
+      <c r="P7">
+        <v>0.07986766375042015</v>
+      </c>
+      <c r="Q7">
+        <v>0.3259069701555556</v>
+      </c>
+      <c r="R7">
+        <v>2.9331627314</v>
+      </c>
+      <c r="S7">
+        <v>0.002481132271000583</v>
+      </c>
+      <c r="T7">
+        <v>0.002481132271000583</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>1.417397666666667</v>
+      </c>
+      <c r="H8">
+        <v>4.252193</v>
+      </c>
+      <c r="I8">
+        <v>0.03106554210417268</v>
+      </c>
+      <c r="J8">
+        <v>0.03106554210417268</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.257301333333333</v>
+      </c>
+      <c r="N8">
+        <v>3.771904</v>
+      </c>
+      <c r="O8">
+        <v>0.4367253702100098</v>
+      </c>
+      <c r="P8">
+        <v>0.4367253702100098</v>
+      </c>
+      <c r="Q8">
+        <v>1.782095976163556</v>
+      </c>
+      <c r="R8">
+        <v>16.038863785472</v>
+      </c>
+      <c r="S8">
+        <v>0.01356711037621946</v>
+      </c>
+      <c r="T8">
+        <v>0.01356711037621946</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>1.417397666666667</v>
+      </c>
+      <c r="H9">
+        <v>4.252193</v>
+      </c>
+      <c r="I9">
+        <v>0.03106554210417268</v>
+      </c>
+      <c r="J9">
+        <v>0.03106554210417268</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.35038</v>
+      </c>
+      <c r="N9">
+        <v>1.05114</v>
+      </c>
+      <c r="O9">
+        <v>0.1217049812621291</v>
+      </c>
+      <c r="P9">
+        <v>0.1217049812621291</v>
+      </c>
+      <c r="Q9">
+        <v>0.4966277944466667</v>
+      </c>
+      <c r="R9">
+        <v>4.46965015002</v>
+      </c>
+      <c r="S9">
+        <v>0.003780831219686218</v>
+      </c>
+      <c r="T9">
+        <v>0.003780831219686218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>1.417397666666667</v>
+      </c>
+      <c r="H10">
+        <v>4.252193</v>
+      </c>
+      <c r="I10">
+        <v>0.03106554210417268</v>
+      </c>
+      <c r="J10">
+        <v>0.03106554210417268</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.7376903333333334</v>
+      </c>
+      <c r="N10">
+        <v>2.213071</v>
+      </c>
+      <c r="O10">
+        <v>0.2562377652708119</v>
+      </c>
+      <c r="P10">
+        <v>0.2562377652708119</v>
+      </c>
+      <c r="Q10">
+        <v>1.045600557189222</v>
+      </c>
+      <c r="R10">
+        <v>9.410405014703001</v>
+      </c>
+      <c r="S10">
+        <v>0.007960165085699526</v>
+      </c>
+      <c r="T10">
+        <v>0.007960165085699524</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>31.1849719490974</v>
-      </c>
-      <c r="H7">
-        <v>31.1849719490974</v>
-      </c>
-      <c r="I7">
-        <v>0.9156871485423209</v>
-      </c>
-      <c r="J7">
-        <v>0.9156871485423209</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.283720047995176</v>
-      </c>
-      <c r="N7">
-        <v>0.283720047995176</v>
-      </c>
-      <c r="O7">
-        <v>0.1529537798154001</v>
-      </c>
-      <c r="P7">
-        <v>0.1529537798154001</v>
-      </c>
-      <c r="Q7">
-        <v>8.84780173812613</v>
-      </c>
-      <c r="R7">
-        <v>8.84780173812613</v>
-      </c>
-      <c r="S7">
-        <v>0.1400578104979337</v>
-      </c>
-      <c r="T7">
-        <v>0.1400578104979337</v>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>1.417397666666667</v>
+      </c>
+      <c r="H11">
+        <v>4.252193</v>
+      </c>
+      <c r="I11">
+        <v>0.03106554210417268</v>
+      </c>
+      <c r="J11">
+        <v>0.03106554210417268</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.303624</v>
+      </c>
+      <c r="N11">
+        <v>0.910872</v>
+      </c>
+      <c r="O11">
+        <v>0.105464219506629</v>
+      </c>
+      <c r="P11">
+        <v>0.105464219506629</v>
+      </c>
+      <c r="Q11">
+        <v>0.430355949144</v>
+      </c>
+      <c r="R11">
+        <v>3.873203542296</v>
+      </c>
+      <c r="S11">
+        <v>0.003276303151566894</v>
+      </c>
+      <c r="T11">
+        <v>0.003276303151566894</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.8772793333333334</v>
+      </c>
+      <c r="H12">
+        <v>2.631838</v>
+      </c>
+      <c r="I12">
+        <v>0.01922760189868184</v>
+      </c>
+      <c r="J12">
+        <v>0.01922760189868184</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.2299333333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.6898</v>
+      </c>
+      <c r="O12">
+        <v>0.07986766375042013</v>
+      </c>
+      <c r="P12">
+        <v>0.07986766375042015</v>
+      </c>
+      <c r="Q12">
+        <v>0.2017157613777778</v>
+      </c>
+      <c r="R12">
+        <v>1.8154418524</v>
+      </c>
+      <c r="S12">
+        <v>0.001535663643170861</v>
+      </c>
+      <c r="T12">
+        <v>0.001535663643170861</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.8772793333333334</v>
+      </c>
+      <c r="H13">
+        <v>2.631838</v>
+      </c>
+      <c r="I13">
+        <v>0.01922760189868184</v>
+      </c>
+      <c r="J13">
+        <v>0.01922760189868184</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.257301333333333</v>
+      </c>
+      <c r="N13">
+        <v>3.771904</v>
+      </c>
+      <c r="O13">
+        <v>0.4367253702100098</v>
+      </c>
+      <c r="P13">
+        <v>0.4367253702100098</v>
+      </c>
+      <c r="Q13">
+        <v>1.103004475505778</v>
+      </c>
+      <c r="R13">
+        <v>9.927040279552001</v>
+      </c>
+      <c r="S13">
+        <v>0.008397181557452513</v>
+      </c>
+      <c r="T13">
+        <v>0.008397181557452513</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.8772793333333334</v>
+      </c>
+      <c r="H14">
+        <v>2.631838</v>
+      </c>
+      <c r="I14">
+        <v>0.01922760189868184</v>
+      </c>
+      <c r="J14">
+        <v>0.01922760189868184</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.35038</v>
+      </c>
+      <c r="N14">
+        <v>1.05114</v>
+      </c>
+      <c r="O14">
+        <v>0.1217049812621291</v>
+      </c>
+      <c r="P14">
+        <v>0.1217049812621291</v>
+      </c>
+      <c r="Q14">
+        <v>0.3073811328133333</v>
+      </c>
+      <c r="R14">
+        <v>2.76643019532</v>
+      </c>
+      <c r="S14">
+        <v>0.00234009492879475</v>
+      </c>
+      <c r="T14">
+        <v>0.00234009492879475</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.8772793333333334</v>
+      </c>
+      <c r="H15">
+        <v>2.631838</v>
+      </c>
+      <c r="I15">
+        <v>0.01922760189868184</v>
+      </c>
+      <c r="J15">
+        <v>0.01922760189868184</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.7376903333333334</v>
+      </c>
+      <c r="N15">
+        <v>2.213071</v>
+      </c>
+      <c r="O15">
+        <v>0.2562377652708119</v>
+      </c>
+      <c r="P15">
+        <v>0.2562377652708119</v>
+      </c>
+      <c r="Q15">
+        <v>0.6471604838331113</v>
+      </c>
+      <c r="R15">
+        <v>5.824444354498</v>
+      </c>
+      <c r="S15">
+        <v>0.004926837742035055</v>
+      </c>
+      <c r="T15">
+        <v>0.004926837742035055</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.8772793333333334</v>
+      </c>
+      <c r="H16">
+        <v>2.631838</v>
+      </c>
+      <c r="I16">
+        <v>0.01922760189868184</v>
+      </c>
+      <c r="J16">
+        <v>0.01922760189868184</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.303624</v>
+      </c>
+      <c r="N16">
+        <v>0.910872</v>
+      </c>
+      <c r="O16">
+        <v>0.105464219506629</v>
+      </c>
+      <c r="P16">
+        <v>0.105464219506629</v>
+      </c>
+      <c r="Q16">
+        <v>0.266363060304</v>
+      </c>
+      <c r="R16">
+        <v>2.397267542736</v>
+      </c>
+      <c r="S16">
+        <v>0.002027824027228658</v>
+      </c>
+      <c r="T16">
+        <v>0.002027824027228658</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.5930623333333332</v>
+      </c>
+      <c r="H17">
+        <v>1.779187</v>
+      </c>
+      <c r="I17">
+        <v>0.01299833019331358</v>
+      </c>
+      <c r="J17">
+        <v>0.01299833019331358</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.2299333333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.6898</v>
+      </c>
+      <c r="O17">
+        <v>0.07986766375042013</v>
+      </c>
+      <c r="P17">
+        <v>0.07986766375042015</v>
+      </c>
+      <c r="Q17">
+        <v>0.1363647991777777</v>
+      </c>
+      <c r="R17">
+        <v>1.2272831926</v>
+      </c>
+      <c r="S17">
+        <v>0.001038146265196503</v>
+      </c>
+      <c r="T17">
+        <v>0.001038146265196503</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.5930623333333332</v>
+      </c>
+      <c r="H18">
+        <v>1.779187</v>
+      </c>
+      <c r="I18">
+        <v>0.01299833019331358</v>
+      </c>
+      <c r="J18">
+        <v>0.01299833019331358</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.257301333333333</v>
+      </c>
+      <c r="N18">
+        <v>3.771904</v>
+      </c>
+      <c r="O18">
+        <v>0.4367253702100098</v>
+      </c>
+      <c r="P18">
+        <v>0.4367253702100098</v>
+      </c>
+      <c r="Q18">
+        <v>0.7456580624497777</v>
+      </c>
+      <c r="R18">
+        <v>6.710922562047999</v>
+      </c>
+      <c r="S18">
+        <v>0.005676700565786823</v>
+      </c>
+      <c r="T18">
+        <v>0.005676700565786824</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.5930623333333332</v>
+      </c>
+      <c r="H19">
+        <v>1.779187</v>
+      </c>
+      <c r="I19">
+        <v>0.01299833019331358</v>
+      </c>
+      <c r="J19">
+        <v>0.01299833019331358</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.35038</v>
+      </c>
+      <c r="N19">
+        <v>1.05114</v>
+      </c>
+      <c r="O19">
+        <v>0.1217049812621291</v>
+      </c>
+      <c r="P19">
+        <v>0.1217049812621291</v>
+      </c>
+      <c r="Q19">
+        <v>0.2077971803533333</v>
+      </c>
+      <c r="R19">
+        <v>1.87017462318</v>
+      </c>
+      <c r="S19">
+        <v>0.001581961532616196</v>
+      </c>
+      <c r="T19">
+        <v>0.001581961532616196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.5930623333333332</v>
+      </c>
+      <c r="H20">
+        <v>1.779187</v>
+      </c>
+      <c r="I20">
+        <v>0.01299833019331358</v>
+      </c>
+      <c r="J20">
+        <v>0.01299833019331358</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.7376903333333334</v>
+      </c>
+      <c r="N20">
+        <v>2.213071</v>
+      </c>
+      <c r="O20">
+        <v>0.2562377652708119</v>
+      </c>
+      <c r="P20">
+        <v>0.2562377652708119</v>
+      </c>
+      <c r="Q20">
+        <v>0.4374963503641111</v>
+      </c>
+      <c r="R20">
+        <v>3.937467153277</v>
+      </c>
+      <c r="S20">
+        <v>0.003330663080986793</v>
+      </c>
+      <c r="T20">
+        <v>0.003330663080986794</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.5930623333333332</v>
+      </c>
+      <c r="H21">
+        <v>1.779187</v>
+      </c>
+      <c r="I21">
+        <v>0.01299833019331358</v>
+      </c>
+      <c r="J21">
+        <v>0.01299833019331358</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.303624</v>
+      </c>
+      <c r="N21">
+        <v>0.910872</v>
+      </c>
+      <c r="O21">
+        <v>0.105464219506629</v>
+      </c>
+      <c r="P21">
+        <v>0.105464219506629</v>
+      </c>
+      <c r="Q21">
+        <v>0.180067957896</v>
+      </c>
+      <c r="R21">
+        <v>1.620611621064</v>
+      </c>
+      <c r="S21">
+        <v>0.001370858748727267</v>
+      </c>
+      <c r="T21">
+        <v>0.001370858748727268</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>39.84844466666667</v>
+      </c>
+      <c r="H22">
+        <v>119.545334</v>
+      </c>
+      <c r="I22">
+        <v>0.8733706599710751</v>
+      </c>
+      <c r="J22">
+        <v>0.873370659971075</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.2299333333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.6898</v>
+      </c>
+      <c r="O22">
+        <v>0.07986766375042013</v>
+      </c>
+      <c r="P22">
+        <v>0.07986766375042015</v>
+      </c>
+      <c r="Q22">
+        <v>9.162485710355554</v>
+      </c>
+      <c r="R22">
+        <v>82.46237139319999</v>
+      </c>
+      <c r="S22">
+        <v>0.06975407420005235</v>
+      </c>
+      <c r="T22">
+        <v>0.06975407420005235</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>39.84844466666667</v>
+      </c>
+      <c r="H23">
+        <v>119.545334</v>
+      </c>
+      <c r="I23">
+        <v>0.8733706599710751</v>
+      </c>
+      <c r="J23">
+        <v>0.873370659971075</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.257301333333333</v>
+      </c>
+      <c r="N23">
+        <v>3.771904</v>
+      </c>
+      <c r="O23">
+        <v>0.4367253702100098</v>
+      </c>
+      <c r="P23">
+        <v>0.4367253702100098</v>
+      </c>
+      <c r="Q23">
+        <v>50.10150261065956</v>
+      </c>
+      <c r="R23">
+        <v>450.913523495936</v>
+      </c>
+      <c r="S23">
+        <v>0.3814231248064284</v>
+      </c>
+      <c r="T23">
+        <v>0.3814231248064284</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>39.84844466666667</v>
+      </c>
+      <c r="H24">
+        <v>119.545334</v>
+      </c>
+      <c r="I24">
+        <v>0.8733706599710751</v>
+      </c>
+      <c r="J24">
+        <v>0.873370659971075</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.35038</v>
+      </c>
+      <c r="N24">
+        <v>1.05114</v>
+      </c>
+      <c r="O24">
+        <v>0.1217049812621291</v>
+      </c>
+      <c r="P24">
+        <v>0.1217049812621291</v>
+      </c>
+      <c r="Q24">
+        <v>13.96209804230667</v>
+      </c>
+      <c r="R24">
+        <v>125.65888238076</v>
+      </c>
+      <c r="S24">
+        <v>0.106293559806673</v>
+      </c>
+      <c r="T24">
+        <v>0.106293559806673</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>39.84844466666667</v>
+      </c>
+      <c r="H25">
+        <v>119.545334</v>
+      </c>
+      <c r="I25">
+        <v>0.8733706599710751</v>
+      </c>
+      <c r="J25">
+        <v>0.873370659971075</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.7376903333333334</v>
+      </c>
+      <c r="N25">
+        <v>2.213071</v>
+      </c>
+      <c r="O25">
+        <v>0.2562377652708119</v>
+      </c>
+      <c r="P25">
+        <v>0.2562377652708119</v>
+      </c>
+      <c r="Q25">
+        <v>29.39581242896823</v>
+      </c>
+      <c r="R25">
+        <v>264.562311860714</v>
+      </c>
+      <c r="S25">
+        <v>0.2237905461640824</v>
+      </c>
+      <c r="T25">
+        <v>0.2237905461640824</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>39.84844466666667</v>
+      </c>
+      <c r="H26">
+        <v>119.545334</v>
+      </c>
+      <c r="I26">
+        <v>0.8733706599710751</v>
+      </c>
+      <c r="J26">
+        <v>0.873370659971075</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.303624</v>
+      </c>
+      <c r="N26">
+        <v>0.910872</v>
+      </c>
+      <c r="O26">
+        <v>0.105464219506629</v>
+      </c>
+      <c r="P26">
+        <v>0.105464219506629</v>
+      </c>
+      <c r="Q26">
+        <v>12.098944163472</v>
+      </c>
+      <c r="R26">
+        <v>108.890497471248</v>
+      </c>
+      <c r="S26">
+        <v>0.09210935499383892</v>
+      </c>
+      <c r="T26">
+        <v>0.09210935499383892</v>
       </c>
     </row>
   </sheetData>
